--- a/medicine/Enfance/Penelope_Delta/Penelope_Delta.xlsx
+++ b/medicine/Enfance/Penelope_Delta/Penelope_Delta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinelópi Délta (en grec : Πηνελόπη Δέλτα), dans les autres pays elle est plutôt appelée Penelope Delta (24 avril 1874 - 2 mai 1941) est une écrivaine grecque de livres pour jeunes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pénélope Delta est née à Alexandrie en Égypte, du riche marchand de coton Emmanuel Benákis et de Virginia Choremi. Elle a une grande sœur, Alexandra, et un grand frère, Antónis Benákis (dont elle immortalisa les 400 coups à la Tom Sawyer dans son livre Ο Tρελαντώνης), et trois autres membres de fratrie plus jeunes, Constantin, qui mourut à l'âge de deux ans, Alexandre et Argine.
 La famille Benákis déménage temporairement à Athènes en 1882, où Pénélope épouse plus tard un riche entrepreneur phanariote, Stéphanos Deltas, de qui elle a trois filles, Sophia Mavrocordatos, Virginia Zannas (grand-mère de l'ancien premier ministre grec Antonis Samaras), et Alexandra Papadopoulos. Elle retourne à Alexandrie en 1905, où elle rencontre le véritable amour de sa vie, Íon Dragoúmis, qui est à l'époque le vice-consul de Grèce dans cette ville. Par respect pour son époux et pour leurs enfants, Pénélope Delta et Íon Dragoúmis décident de se séparer, mais continuent d'entretenir une correspondance passionnée jusqu'en 1912, date où Íon Dragoúmis commence une relation avec la célèbre actrice Marika Kotopouli. Durant cette même période, Pénélope fait deux tentatives de suicide.
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Romans traduits en français :
 Toinon l'espiègle (1932), Paris, Nathan, 1991.
